--- a/processing/scrape/IndoInflation/DB_Data/IndoInfDB.xlsx
+++ b/processing/scrape/IndoInflation/DB_Data/IndoInfDB.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,7 +535,7 @@
         <v>5.51</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>45190.68849537037</v>
+        <v>45195.41364583333</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
@@ -585,7 +585,7 @@
         <v>5.42</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>45190.68849537037</v>
+        <v>45195.41364583333</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
@@ -601,16 +601,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Vietname</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Bank Indonesia</t>
+          <t>GENERAL STATISTICS OFFICE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -628,39 +628,43 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>January</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5.71</v>
+        <v>0.660568</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>45190.68849537037</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>45195.44356481481</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1970-01-01</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>https://www.bi.go.id/en/statistik/indikator/data-inflasi.aspx</t>
+          <t>https://nsdp.gso.gov.vn/index.htm</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Just show only month</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Vietname</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bank Indonesia</t>
+          <t>GENERAL STATISTICS OFFICE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -678,39 +682,43 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>February</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5.95</v>
+        <v>0.67648</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>45190.68849537037</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>45195.44356481481</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1970-01-01</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>https://www.bi.go.id/en/statistik/indikator/data-inflasi.aspx</t>
+          <t>https://nsdp.gso.gov.vn/index.htm</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Just show only month</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Vietname</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Bank Indonesia</t>
+          <t>GENERAL STATISTICS OFFICE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -728,39 +736,43 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>March</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4.69</v>
+        <v>1.09105</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>45190.68849537037</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>45195.44356481481</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1970-01-01</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>https://www.bi.go.id/en/statistik/indikator/data-inflasi.aspx</t>
+          <t>https://nsdp.gso.gov.vn/index.htm</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Just show only month</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Vietname</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bank Indonesia</t>
+          <t>GENERAL STATISTICS OFFICE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -778,39 +790,43 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>April</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4.94</v>
+        <v>1.46936</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>45190.68849537037</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>45195.44356481481</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1970-01-01</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>https://www.bi.go.id/en/statistik/indikator/data-inflasi.aspx</t>
+          <t>https://nsdp.gso.gov.vn/index.htm</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Just show only month</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Vietname</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Bank Indonesia</t>
+          <t>GENERAL STATISTICS OFFICE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -828,39 +844,43 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>May</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4.35</v>
+        <v>1.61</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>45190.68849537037</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>45195.44356481481</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1970-01-01</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>https://www.bi.go.id/en/statistik/indikator/data-inflasi.aspx</t>
+          <t>https://nsdp.gso.gov.vn/index.htm</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Just show only month</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Vietname</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Bank Indonesia</t>
+          <t>GENERAL STATISTICS OFFICE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -878,39 +898,43 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3.55</v>
+        <v>1.98</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>45190.68849537037</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+        <v>45195.44356481481</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1970-01-01</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>https://www.bi.go.id/en/statistik/indikator/data-inflasi.aspx</t>
+          <t>https://nsdp.gso.gov.vn/index.htm</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Just show only month</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Vietname</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Bank Indonesia</t>
+          <t>GENERAL STATISTICS OFFICE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -928,39 +952,43 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>July</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.47</v>
+        <v>2.62897</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>45190.68849537037</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>45195.44356481481</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1970-01-01</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>https://www.bi.go.id/en/statistik/indikator/data-inflasi.aspx</t>
+          <t>https://nsdp.gso.gov.vn/index.htm</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Just show only month</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Vietname</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Bank Indonesia</t>
+          <t>GENERAL STATISTICS OFFICE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -978,39 +1006,43 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>August</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2.64</v>
+        <v>3.06384</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>45190.68849537037</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>45195.44356481481</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1970-01-01</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>https://www.bi.go.id/en/statistik/indikator/data-inflasi.aspx</t>
+          <t>https://nsdp.gso.gov.vn/index.htm</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Just show only month</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Vietname</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Bank Indonesia</t>
+          <t>GENERAL STATISTICS OFFICE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1028,74 +1060,1338 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>September</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2.06</v>
+        <v>3.82334</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>45190.68849537037</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>45195.44356481481</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1970-01-01</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>https://www.bi.go.id/en/statistik/indikator/data-inflasi.aspx</t>
+          <t>https://nsdp.gso.gov.vn/index.htm</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Just show only month</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Vietname</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>GENERAL STATISTICS OFFICE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>45195.44356481481</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1970-01-01</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>https://nsdp.gso.gov.vn/index.htm</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Vietname</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>GENERAL STATISTICS OFFICE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4.80502</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>45195.44356481481</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1970-01-01</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>https://nsdp.gso.gov.vn/index.htm</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>39</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Vietname</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>GENERAL STATISTICS OFFICE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>45195.44356481481</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1970-01-01</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>https://nsdp.gso.gov.vn/index.htm</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>48</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>Indonesia</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Bank Indonesia</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2022</v>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>45195.44444444445</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>https://www.bi.go.id/en/statistik/indikator/data-inflasi.aspx</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Just show only month</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>49</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Bank Indonesia</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>45195.44444444445</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>https://www.bi.go.id/en/statistik/indikator/data-inflasi.aspx</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Just show only month</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>50</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Bank Indonesia</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>45195.44444444445</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>https://www.bi.go.id/en/statistik/indikator/data-inflasi.aspx</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Just show only month</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>51</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Bank Indonesia</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>45195.44444444445</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>https://www.bi.go.id/en/statistik/indikator/data-inflasi.aspx</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Just show only month</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>52</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Bank Indonesia</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>45195.44444444445</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>https://www.bi.go.id/en/statistik/indikator/data-inflasi.aspx</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Just show only month</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>53</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Bank Indonesia</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>45195.44444444445</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>https://www.bi.go.id/en/statistik/indikator/data-inflasi.aspx</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Just show only month</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>54</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Bank Indonesia</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>45195.44444444445</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>https://www.bi.go.id/en/statistik/indikator/data-inflasi.aspx</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Just show only month</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>55</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Bank Indonesia</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>45195.44444444445</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>https://www.bi.go.id/en/statistik/indikator/data-inflasi.aspx</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Just show only month</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>56</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Bank Indonesia</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>February</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>45195.44444444445</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>https://www.bi.go.id/en/statistik/indikator/data-inflasi.aspx</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Just show only month</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>57</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Bank Indonesia</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>January</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H25" t="n">
         <v>2.18</v>
       </c>
-      <c r="I13" s="2" t="n">
-        <v>45190.68849537037</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
+      <c r="I25" s="2" t="n">
+        <v>45195.44444444445</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
         <is>
           <t>https://www.bi.go.id/en/statistik/indikator/data-inflasi.aspx</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>Just show only month</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>308</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ministry of Commerce</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>45195.57438657407</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>1970-01-01</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>http://www.indexpr.moc.go.th/price_present/cpi/stat/others/report_core1.asp?tb=cpig_index_country&amp;code=93&amp;c_index=a.change_year</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Headline Consumer Price Index</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>309</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ministry of Commerce</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>February</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>45195.57438657407</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1970-01-01</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>http://www.indexpr.moc.go.th/price_present/cpi/stat/others/report_core1.asp?tb=cpig_index_country&amp;code=93&amp;c_index=a.change_year</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Headline Consumer Price Index</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>310</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ministry of Commerce</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>45195.57438657407</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1970-01-01</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>http://www.indexpr.moc.go.th/price_present/cpi/stat/others/report_core1.asp?tb=cpig_index_country&amp;code=93&amp;c_index=a.change_year</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Headline Consumer Price Index</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>311</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ministry of Commerce</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>45195.57438657407</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>1970-01-01</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>http://www.indexpr.moc.go.th/price_present/cpi/stat/others/report_core1.asp?tb=cpig_index_country&amp;code=93&amp;c_index=a.change_year</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Headline Consumer Price Index</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>312</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ministry of Commerce</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>45195.57438657407</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>1970-01-01</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>http://www.indexpr.moc.go.th/price_present/cpi/stat/others/report_core1.asp?tb=cpig_index_country&amp;code=93&amp;c_index=a.change_year</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Headline Consumer Price Index</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>313</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ministry of Commerce</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>45195.57438657407</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>1970-01-01</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>http://www.indexpr.moc.go.th/price_present/cpi/stat/others/report_core1.asp?tb=cpig_index_country&amp;code=93&amp;c_index=a.change_year</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Headline Consumer Price Index</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>314</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ministry of Commerce</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>45195.57438657407</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1970-01-01</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>http://www.indexpr.moc.go.th/price_present/cpi/stat/others/report_core1.asp?tb=cpig_index_country&amp;code=93&amp;c_index=a.change_year</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Headline Consumer Price Index</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>315</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ministry of Commerce</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>45195.57438657407</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>1970-01-01</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>http://www.indexpr.moc.go.th/price_present/cpi/stat/others/report_core1.asp?tb=cpig_index_country&amp;code=93&amp;c_index=a.change_year</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Headline Consumer Price Index</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>316</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ministry of Commerce</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>45195.57438657407</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>1970-01-01</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>http://www.indexpr.moc.go.th/price_present/cpi/stat/others/report_core1.asp?tb=cpig_index_country&amp;code=93&amp;c_index=a.change_year</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Headline Consumer Price Index</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>317</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ministry of Commerce</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>45195.57438657407</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1970-01-01</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>http://www.indexpr.moc.go.th/price_present/cpi/stat/others/report_core1.asp?tb=cpig_index_country&amp;code=93&amp;c_index=a.change_year</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Headline Consumer Price Index</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>318</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ministry of Commerce</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>45195.57438657407</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>1970-01-01</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>http://www.indexpr.moc.go.th/price_present/cpi/stat/others/report_core1.asp?tb=cpig_index_country&amp;code=93&amp;c_index=a.change_year</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Headline Consumer Price Index</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>319</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ministry of Commerce</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>45195.57438657407</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>1970-01-01</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>http://www.indexpr.moc.go.th/price_present/cpi/stat/others/report_core1.asp?tb=cpig_index_country&amp;code=93&amp;c_index=a.change_year</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Headline Consumer Price Index</t>
         </is>
       </c>
     </row>
